--- a/data_xlsx/期货结算价(连续)_WTI原油.xlsx
+++ b/data_xlsx/期货结算价(连续)_WTI原油.xlsx
@@ -27722,8 +27722,184 @@
         <v>79.63</v>
       </c>
     </row>
+    <row r="3456">
+      <c r="A3456" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3456" s="2" t="n">
+        <v>78.78</v>
+      </c>
+    </row>
     <row r="3457">
-      <c r="A3457" s="3" t="inlineStr">
+      <c r="A3457" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3457" s="2" t="n">
+        <v>80.09</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3458" s="2" t="n">
+        <v>80.58</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3459" s="2" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3460" s="2" t="n">
+        <v>81.37</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3461" s="2" t="n">
+        <v>79.49</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3462" s="2" t="n">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3463" s="2" t="n">
+        <v>82.82</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3464" s="2" t="n">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3465" s="2" t="n">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3466" s="2" t="n">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3467" s="2" t="n">
+        <v>82.82</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3468" s="2" t="n">
+        <v>83.19</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3469" s="2" t="n">
+        <v>82.51</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3470" s="2" t="n">
+        <v>80.99</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3471" s="2" t="n">
+        <v>79.38</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3472" s="2" t="n">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3473" s="2" t="n">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3474" s="2" t="n">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3475" s="2" t="n">
+        <v>79.64</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3476" s="2" t="n">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3477" s="2" t="n">
+        <v>79.05</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
